--- a/Document/DPV.DB/DPV.DB.xlsx
+++ b/Document/DPV.DB/DPV.DB.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -465,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,13 +481,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -505,15 +500,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,6 +507,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -829,41 +824,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -872,30 +867,30 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -904,11 +899,11 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -919,11 +914,11 @@
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -934,11 +929,11 @@
       <c r="D6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -949,30 +944,30 @@
       <c r="D7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -981,11 +976,11 @@
       <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -996,120 +991,122 @@
       <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="19"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1118,13 +1115,13 @@
       <c r="D18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="4" t="s">
@@ -1133,13 +1130,13 @@
       <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="4" t="s">
@@ -1148,13 +1145,13 @@
       <c r="D20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="4" t="s">
@@ -1163,545 +1160,559 @@
       <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="18"/>
       <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="19"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>22</v>
-      </c>
-      <c r="B25" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E26" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="19"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14"/>
       <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>25</v>
-      </c>
-      <c r="B29" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>26</v>
-      </c>
-      <c r="B30" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E30" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>27</v>
-      </c>
-      <c r="B31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="2"/>
-      <c r="B32" s="19"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14"/>
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>28</v>
-      </c>
-      <c r="B33" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="14"/>
       <c r="C33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>29</v>
-      </c>
-      <c r="B34" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="15"/>
       <c r="C34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>30</v>
-      </c>
-      <c r="B35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E36" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>32</v>
-      </c>
-      <c r="B37" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E37" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>33</v>
-      </c>
-      <c r="B38" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>34</v>
-      </c>
-      <c r="B39" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="14"/>
       <c r="C39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E39" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>35</v>
-      </c>
-      <c r="B40" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="14"/>
       <c r="C40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E40" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>36</v>
-      </c>
-      <c r="B41" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="14"/>
       <c r="C41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E41" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>37</v>
-      </c>
-      <c r="B42" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="14"/>
       <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E42" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>38</v>
-      </c>
-      <c r="B43" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="15"/>
       <c r="C43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E43" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>39</v>
-      </c>
-      <c r="B44" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E44" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>40</v>
-      </c>
-      <c r="B45" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="15"/>
       <c r="C45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E45" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>41</v>
-      </c>
-      <c r="B46" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E47" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E48" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E49" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E50" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E51" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>47</v>
-      </c>
-      <c r="B52" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="18"/>
       <c r="C52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E52" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>48</v>
-      </c>
-      <c r="B53" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="2"/>
-      <c r="B54" s="19"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="14"/>
       <c r="C54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>49</v>
-      </c>
-      <c r="B55" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="14"/>
       <c r="C55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>50</v>
-      </c>
-      <c r="B56" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="15"/>
       <c r="C56" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="5" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B18:B22"/>
     <mergeCell ref="B38:B43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B46:B52"/>
@@ -1709,12 +1720,6 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
